--- a/biology/Zoologie/Crioceris_asparagi/Crioceris_asparagi.xlsx
+++ b/biology/Zoologie/Crioceris_asparagi/Crioceris_asparagi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le criocère de l'asperge, Crioceris asparagi, est une espèce de petits coléoptères de la famille des Chrysomelidae (ou chrysomèles) qui est originaire d'Europe.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses élytres sont noirs, marqués de taches rectangulaires claires plutôt jaunâtres, ses pattes et antennes sont noires. Le pronotum est brun rougeâtre et cylindrique. L'abdomen est discrètement caché sous les élytres. La face ventrale est noire. La griffe centrale située à l'extrémité de la patte est courte.
 </t>
@@ -542,7 +556,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes, comme les larves, se nourrissent des asperges bien développées, dont ils rongent l'épiderme vert des rameaux, ce qui peut entraîner leur dépérissement en cas de pullulement.
 </t>
@@ -573,7 +589,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago vole rapidement et il sait très bien se dissimuler en tournant autour des rameaux suffisamment épais et, au besoin, en se laissant tomber dans la végétation ou sur le sol.Il peut striduler faiblement pour effrayer un prédateur.
 </t>
@@ -604,7 +622,9 @@
           <t>Espèce nuisible</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Crioceris asparagi est considéré comme une espèce nuisible dans les cultures d'asperges.
 Espèce proche
